--- a/table.xlsx
+++ b/table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>answer</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Могут ли быть подобными треугольник с углом 121 и треугольник с углом 59 градусов?</t>
   </si>
   <si>
-    <t>Свойства параллелограмма</t>
-  </si>
-  <si>
-    <t>Признаки параллелограмма</t>
-  </si>
-  <si>
     <t>Свойство и признаки ромба</t>
   </si>
   <si>
@@ -142,6 +136,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Сформулируйте 3 закон Ньютона</t>
+  </si>
+  <si>
+    <t>Назовите формулу силы тяжести</t>
+  </si>
+  <si>
+    <t>Назовите формулу закона Ома</t>
+  </si>
+  <si>
+    <t>F = mg</t>
+  </si>
+  <si>
+    <t>I = U/R</t>
   </si>
 </sst>
 </file>
@@ -380,6 +386,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4524375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="209550" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="3324225"/>
+          <a:ext cx="209550" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -672,7 +732,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -715,55 +775,55 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="9">
         <v>100</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="7">
         <v>200</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7">
         <v>300</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -778,7 +838,7 @@
         <v>400</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -793,43 +853,43 @@
         <v>500</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7">
         <v>100</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C9" s="7">
         <v>200</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>0</v>
@@ -838,13 +898,13 @@
         <v>300</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>0</v>
@@ -853,13 +913,13 @@
         <v>400</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>0</v>
@@ -868,13 +928,13 @@
         <v>500</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>0</v>
@@ -883,13 +943,13 @@
         <v>100</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>0</v>
@@ -898,15 +958,15 @@
         <v>200</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>0</v>
@@ -915,13 +975,13 @@
         <v>300</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>0</v>
@@ -930,13 +990,13 @@
         <v>400</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>0</v>
@@ -945,13 +1005,13 @@
         <v>500</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>0</v>
@@ -960,13 +1020,13 @@
         <v>100</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>0</v>
@@ -975,13 +1035,13 @@
         <v>200</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>0</v>
@@ -990,13 +1050,13 @@
         <v>300</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>0</v>
@@ -1005,15 +1065,15 @@
         <v>400</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
@@ -1022,7 +1082,7 @@
         <v>500</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -1046,5 +1106,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Своя игра 2\Своя игра 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Своя игра 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>answer</t>
   </si>
@@ -45,109 +45,160 @@
     <t>тема вопроса</t>
   </si>
   <si>
-    <t>Свойство биссектрисы треугольника</t>
-  </si>
-  <si>
-    <t>Могут ли быть подобными треугольник с углом 121 и треугольник с углом 59 градусов?</t>
-  </si>
-  <si>
-    <t>Свойство и признаки ромба</t>
-  </si>
-  <si>
-    <t>Свойство и признак прямоугольника</t>
-  </si>
-  <si>
-    <t>Название какой фигуры в переводе с греческого означает «обеденный столик»?</t>
-  </si>
-  <si>
-    <t>Вписанный угол, опирающийся на диаметр</t>
-  </si>
-  <si>
-    <t>Свойство отрезков касательных</t>
-  </si>
-  <si>
-    <t>Свойство отрезков касательной и секущей</t>
-  </si>
-  <si>
-    <t>Два свойства секущих</t>
-  </si>
-  <si>
-    <t>Угол между касательной и хордой</t>
-  </si>
-  <si>
-    <t>Верно ли, что площадь трапеции равна половине произведения ее оснований на высоту?</t>
-  </si>
-  <si>
-    <t>Как называются фигуры, имеющие равные площади?</t>
-  </si>
-  <si>
-    <t>Как можно найти площадь ромба? (не менее 4 способов)</t>
-  </si>
-  <si>
-    <t>Чему равно отношение площадей подобных треугольников?</t>
-  </si>
-  <si>
-    <t>Как, с помощью линейки, разбить треугольник на два треугольника равной площади?</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
     <t>картинка к вопросу. Пустое место, если картинка не прилагается</t>
   </si>
   <si>
-    <t>duck.jpg</t>
-  </si>
-  <si>
-    <t>podobnie_treugolniki.jpg</t>
-  </si>
-  <si>
-    <t>kasatelnie.jpg</t>
-  </si>
-  <si>
-    <t>В каких состояниях может находиться тело, если на него не действуют никакие силы, или все силы скомпенсированны (система отсчёта инерциальная)</t>
-  </si>
-  <si>
-    <t>Тело может находиться либо в состоянии покоя, либо в состоянии равномерного движения</t>
-  </si>
-  <si>
-    <t>kopybara.jpg</t>
-  </si>
-  <si>
-    <t>Механика</t>
-  </si>
-  <si>
     <t>Формулы</t>
   </si>
   <si>
-    <t>Статика</t>
-  </si>
-  <si>
-    <t>Определения</t>
-  </si>
-  <si>
-    <t>В ИСО ускорение, с которым движется тело, прямо пропорционально равнодействующей всех сил и обратно пропорционально массе этого тела.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Сформулируйте 2 закон Ньютона</t>
-  </si>
-  <si>
-    <t>Тела действуют друг на друга с силами, направленными вдоль одной прямой, противоположными по направлению и разными по модулю.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Сформулируйте 3 закон Ньютона</t>
-  </si>
-  <si>
     <t>Назовите формулу силы тяжести</t>
   </si>
   <si>
-    <t>Назовите формулу закона Ома</t>
-  </si>
-  <si>
-    <t>F = mg</t>
-  </si>
-  <si>
     <t>I = U/R</t>
+  </si>
+  <si>
+    <t>Учёные</t>
+  </si>
+  <si>
+    <t>Этот учёный открыл волновую теорию света</t>
+  </si>
+  <si>
+    <t>Христиан Гюйгенс</t>
+  </si>
+  <si>
+    <t>Этот учёный открыл существование атомного ядра</t>
+  </si>
+  <si>
+    <t>Эрнест Резерфорд</t>
+  </si>
+  <si>
+    <t>Этот учёный открыл естественную радиоактивность урана</t>
+  </si>
+  <si>
+    <t>Антуан Беккерель</t>
+  </si>
+  <si>
+    <t>Джозеф Джон Томсон</t>
+  </si>
+  <si>
+    <t>Этот учёный открыл электрон</t>
+  </si>
+  <si>
+    <t>Этот учёный открыл закон всемирного тяготения</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Исак Ньютон</t>
+  </si>
+  <si>
+    <t>Becquerel.jpg</t>
+  </si>
+  <si>
+    <t>Joseph_Tomson.jpg</t>
+  </si>
+  <si>
+    <t>Ernest_Rutherford.jpg</t>
+  </si>
+  <si>
+    <t>Christiaan_Huygens.jpeg</t>
+  </si>
+  <si>
+    <t>Isaac_Newton.jpg</t>
+  </si>
+  <si>
+    <t>Назовите формулу закона Ома для участка цепи</t>
+  </si>
+  <si>
+    <t>Назовите формулу количества теплоты при нагревании или охлаждении тела</t>
+  </si>
+  <si>
+    <t>Назовите формулу силы Ампера</t>
+  </si>
+  <si>
+    <t>Назовите формулу закона Джоуля-Ленца</t>
+  </si>
+  <si>
+    <t>F = m*g</t>
+  </si>
+  <si>
+    <t>Q = c*m*ΔT</t>
+  </si>
+  <si>
+    <t>F = B*I*L*sin a</t>
+  </si>
+  <si>
+    <t>Q = I2*R*t</t>
+  </si>
+  <si>
+    <t>Физ. Величины</t>
+  </si>
+  <si>
+    <t>Эту физическую величину измеряют с помощью мензурки</t>
+  </si>
+  <si>
+    <t>Объём</t>
+  </si>
+  <si>
+    <t>Теплота (внутренняя энергия)</t>
+  </si>
+  <si>
+    <t>Это физическую величину можно измерить с помощью калориметра</t>
+  </si>
+  <si>
+    <t>Эту физическую величину можно измерить с помощью секундомера</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Мощность</t>
+  </si>
+  <si>
+    <t>Эта физическая величина измеряется в ваттах по СИ</t>
+  </si>
+  <si>
+    <t>Эту физическую величину можно измерять с помощью Ареометра</t>
+  </si>
+  <si>
+    <t>Плотность</t>
+  </si>
+  <si>
+    <t>Как называется элементарная частица, находящаяся в ядре атома и не имеющая заряда</t>
+  </si>
+  <si>
+    <t>Нейтрон</t>
+  </si>
+  <si>
+    <t>Из этих частиц состоят элементарные частицы в ядре атома</t>
+  </si>
+  <si>
+    <t>Кварки</t>
+  </si>
+  <si>
+    <t>Альфа-излучение представляет собой поток…</t>
+  </si>
+  <si>
+    <t>Ядер гелия</t>
+  </si>
+  <si>
+    <t>Свойство природы, состоящее в том, что материальные микроскопические объекты могут при одних условиях проявлять свойства волн, а при других - частиц</t>
+  </si>
+  <si>
+    <t>Корпускулярно-волновой дуализм</t>
+  </si>
+  <si>
+    <t>Разложение света в спектр</t>
+  </si>
+  <si>
+    <t>Дисперсия</t>
+  </si>
+  <si>
+    <t>Сложный вопрос</t>
+  </si>
+  <si>
+    <t>Disperse.png</t>
   </si>
 </sst>
 </file>
@@ -194,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -278,22 +329,64 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -303,37 +396,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,7 +504,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4524375</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="209550" cy="172227"/>
@@ -732,7 +842,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -775,316 +885,320 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5">
+        <v>200</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5">
+        <v>300</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5">
+        <v>400</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>500</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5">
+        <v>100</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="9">
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>200</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5">
+        <v>300</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5">
+        <v>400</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="5">
+        <v>500</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="8">
         <v>100</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="8">
         <v>200</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="7">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5">
         <v>300</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="5">
         <v>400</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="D16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5">
         <v>500</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="D17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="5">
         <v>100</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="D18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="5">
         <v>200</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="D19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="5">
         <v>300</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="D20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="5">
         <v>400</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="D21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2">
         <v>500</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>100</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>200</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>300</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7">
-        <v>400</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7">
-        <v>500</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7">
-        <v>100</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="7">
-        <v>200</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="7">
-        <v>300</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="7">
-        <v>400</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>500</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="3"/>
+      <c r="D22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C22">

--- a/table.xlsx
+++ b/table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Своя игра 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Новая папка\Our_Game-main\Our_Game-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112CD06F-EB03-42C3-B049-34C4B9447828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>answer</t>
   </si>
@@ -90,9 +91,6 @@
     <t>Этот учёный открыл закон всемирного тяготения</t>
   </si>
   <si>
-    <t xml:space="preserve"> Исак Ньютон</t>
-  </si>
-  <si>
     <t>Becquerel.jpg</t>
   </si>
   <si>
@@ -156,9 +154,6 @@
     <t>Мощность</t>
   </si>
   <si>
-    <t>Эта физическая величина измеряется в ваттах по СИ</t>
-  </si>
-  <si>
     <t>Эту физическую величину можно измерять с помощью Ареометра</t>
   </si>
   <si>
@@ -189,9 +184,6 @@
     <t>Корпускулярно-волновой дуализм</t>
   </si>
   <si>
-    <t>Разложение света в спектр</t>
-  </si>
-  <si>
     <t>Дисперсия</t>
   </si>
   <si>
@@ -199,12 +191,30 @@
   </si>
   <si>
     <t>Disperse.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Исаак Ньютон</t>
+  </si>
+  <si>
+    <t>Эта физическая величина измеряется в ваттах(Вт)</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>ТЕМА ВИКТОРИНЫ</t>
+  </si>
+  <si>
+    <t>Явление, вызывающее разложение света в спектр</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -413,7 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -436,7 +446,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -444,6 +454,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,7 +523,13 @@
     <xdr:ext cx="209550" cy="172227"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -553,9 +572,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -593,9 +612,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -630,7 +649,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -665,7 +684,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -838,11 +857,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,9 +871,13 @@
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="56" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -870,8 +893,11 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,13 +913,19 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C3" s="6">
         <v>100</v>
@@ -902,10 +934,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>21</v>
       </c>
@@ -919,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
@@ -936,10 +968,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -953,10 +985,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -970,15 +1002,15 @@
         <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5">
         <v>100</v>
@@ -988,9 +1020,9 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>12</v>
@@ -1003,12 +1035,12 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5">
         <v>300</v>
@@ -1018,12 +1050,12 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5">
         <v>400</v>
@@ -1033,12 +1065,12 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5">
         <v>500</v>
@@ -1048,155 +1080,155 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>43</v>
       </c>
       <c r="C13" s="8">
         <v>100</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="C14" s="8">
         <v>200</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5">
         <v>300</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5">
         <v>400</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="5">
         <v>500</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5">
         <v>100</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="5">
         <v>200</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="5">
         <v>300</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C21" s="5">
         <v>400</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2">
         <v>500</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2"/>
     </row>

--- a/table.xlsx
+++ b/table.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Новая папка\Our_Game-main\Our_Game-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\4кацу\Our_Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112CD06F-EB03-42C3-B049-34C4B9447828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -124,12 +123,6 @@
     <t>Q = c*m*ΔT</t>
   </si>
   <si>
-    <t>F = B*I*L*sin a</t>
-  </si>
-  <si>
-    <t>Q = I2*R*t</t>
-  </si>
-  <si>
     <t>Физ. Величины</t>
   </si>
   <si>
@@ -209,12 +202,18 @@
   </si>
   <si>
     <t>Явление, вызывающее разложение света в спектр</t>
+  </si>
+  <si>
+    <t>Q = I&lt;sup&gt;2&lt;/sup&gt;*R*t</t>
+  </si>
+  <si>
+    <t>F = B*I*ℓ*sin a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,9 +571,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -612,9 +611,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -649,7 +648,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -684,7 +683,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -857,11 +856,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +893,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -914,10 +913,10 @@
         <v>9</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -925,7 +924,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="6">
         <v>100</v>
@@ -1055,7 +1054,7 @@
         <v>30</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C11" s="5">
         <v>400</v>
@@ -1070,7 +1069,7 @@
         <v>31</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5">
         <v>500</v>
@@ -1082,153 +1081,153 @@
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="8">
         <v>100</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="8">
         <v>200</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5">
         <v>300</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="5">
         <v>400</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5">
         <v>500</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="5">
         <v>100</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="5">
         <v>200</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="5">
         <v>300</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="5">
         <v>400</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2">
         <v>500</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2"/>
     </row>

--- a/table.xlsx
+++ b/table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\4кацу\Our_Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Инфосфера\Инфопрофи 2\Орлов Арсений\Своя игра\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F5E415-5139-49B9-8E82-EAC0F351F2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -213,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -646,6 +647,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -681,6 +699,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -856,27 +891,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.85546875" customWidth="1"/>
+    <col min="1" max="1" width="60.88671875" customWidth="1"/>
     <col min="2" max="2" width="75" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
     <col min="5" max="5" width="56" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -896,7 +931,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -919,7 +954,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>22</v>
       </c>
@@ -936,7 +971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>21</v>
       </c>
@@ -953,7 +988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
@@ -970,7 +1005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -987,7 +1022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1004,7 +1039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1019,7 +1054,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1034,7 +1069,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1049,7 +1084,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1064,7 +1099,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -1079,7 +1114,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>39</v>
       </c>
@@ -1094,7 +1129,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1109,7 +1144,7 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1124,7 +1159,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
@@ -1139,7 +1174,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -1154,7 +1189,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
@@ -1169,7 +1204,7 @@
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
@@ -1184,7 +1219,7 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>48</v>
       </c>
@@ -1199,7 +1234,7 @@
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
@@ -1216,7 +1251,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>50</v>
       </c>
